--- a/starterkit/phython/__PREFIX__Control.xlsx
+++ b/starterkit/phython/__PREFIX__Control.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9B9D9A-A83F-4818-9887-F89002BE7C30}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD3E9F5-E371-4F4A-9924-A13C6D02F800}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>state</t>
     <phoneticPr fontId="2"/>
@@ -130,6 +130,10 @@
   </si>
   <si>
     <t>thumbnail</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>branch-cmt</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -673,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
@@ -915,34 +919,43 @@
     <row r="26" spans="1:5" s="13" customFormat="1">
       <c r="A26" s="12"/>
       <c r="B26" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:5" s="15" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14" t="s">
+    <row r="27" spans="1:5" s="13" customFormat="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" s="15" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="1:5" s="16" customFormat="1"/>
-    <row r="29" spans="1:5" s="16" customFormat="1">
-      <c r="B29" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" s="16" customFormat="1"/>
     <row r="30" spans="1:5" s="16" customFormat="1">
       <c r="B30" s="16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="16" customFormat="1">
       <c r="B31" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="16" customFormat="1">
+      <c r="B32" s="16" t="s">
         <v>16</v>
       </c>
     </row>
